--- a/PMP.xlsx
+++ b/PMP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>概念</t>
   </si>
@@ -605,6 +605,16 @@
   <si>
     <t>变更管理计划，为管理变更控制过程提供指导，记录变更控制委员会（ CCB）的 情
 况。</t>
+  </si>
+  <si>
+    <t>供应商提的意见建议，要首先看合同中的约定</t>
+  </si>
+  <si>
+    <t>关键路径上的资源变更可能引起进度基准的变更，代表了不确定性，是风险。先查
+看有无应急储备，如果实在没办法才提变更</t>
+  </si>
+  <si>
+    <t>客户任命一位来自咨询公司的项目经理。项目经理首先应该做什么？1.确保正式签发项目章程   2.联系关键客户干系人，获得他们的输入并建立关系 3..联系关键客户干系人，获得他们的输入并建立关系</t>
   </si>
 </sst>
 </file>
@@ -663,66 +673,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,19 +771,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,52 +801,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -824,7 +834,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,13 +873,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,163 +993,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,54 +1064,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1140,6 +1108,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1148,6 +1155,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1156,10 +1172,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1168,137 +1184,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,6 +1361,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1701,12 +1720,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2004,9 +2023,27 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" ht="54" spans="1:1">
+    <row r="37" ht="54" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="2:2">
+      <c r="B39" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" ht="67.5" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/PMP.xlsx
+++ b/PMP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>概念</t>
   </si>
@@ -616,6 +616,14 @@
   <si>
     <t>客户任命一位来自咨询公司的项目经理。项目经理首先应该做什么？1.确保正式签发项目章程   2.联系关键客户干系人，获得他们的输入并建立关系 3..联系关键客户干系人，获得他们的输入并建立关系</t>
   </si>
+  <si>
+    <t>采用了单一来源供应商，会有交付风险</t>
+  </si>
+  <si>
+    <t>采购SOW应该详细描述拟采购的产品、服务或成果，以便潜在的卖方确定他们是否有
+能力提供这些产品、服务或成果；如果出现明显的报价差异，需要审查是否SOW的描述不准
+确或者有的卖方没有全面响应标书内容</t>
+  </si>
 </sst>
 </file>
 
@@ -623,8 +631,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -672,30 +680,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,16 +727,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,22 +743,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,9 +771,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,51 +818,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -879,13 +887,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +1013,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,24 +1043,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -939,121 +1055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,16 +1076,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,39 +1114,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1141,6 +1125,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,10 +1180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,133 +1192,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1424,11 +1432,6 @@
       <color rgb="00FFC000"/>
     </mruColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1720,12 +1723,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2044,6 +2047,16 @@
     <row r="40" ht="67.5" spans="2:2">
       <c r="B40" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" ht="67.5" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
